--- a/outputs/reports/scaling_analysis_detailed.xlsx
+++ b/outputs/reports/scaling_analysis_detailed.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,13 +517,13 @@
         <v>22682</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.002703080810595687</v>
+        <v>-0.001509280258674922</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1510462155536763</v>
+        <v>0.1220390517127306</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.244651506227295</v>
+        <v>-0.5545070013636956</v>
       </c>
       <c r="F2" t="n">
         <v>-0.02544491010506095</v>
@@ -535,19 +535,19 @@
         <v>0.06033508481830793</v>
       </c>
       <c r="I2" t="n">
-        <v>3.363564302100433</v>
+        <v>0.239517793147873</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.145769260864971</v>
+        <v>-1.938282143403495</v>
       </c>
       <c r="K2" t="n">
-        <v>65.82055722260159</v>
+        <v>5.597074039475357</v>
       </c>
       <c r="L2" t="n">
-        <v>6.608215808327728</v>
+        <v>0.7940247945115686</v>
       </c>
       <c r="M2" t="n">
-        <v>55.87928224772151</v>
+        <v>80.85910553145065</v>
       </c>
       <c r="N2" t="n">
         <v>0.08577999492336888</v>
@@ -563,13 +563,13 @@
         <v>22683</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4244123773032225</v>
+        <v>0.4225723457251974</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2134361343775019</v>
+        <v>0.2048371725382835</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0102536924195088</v>
+        <v>0.057638721820137</v>
       </c>
       <c r="F3" t="n">
         <v>0.2562700081392504</v>
@@ -581,19 +581,19 @@
         <v>0.5755317143143779</v>
       </c>
       <c r="I3" t="n">
-        <v>3.323512539935204</v>
+        <v>0.9109458917624782</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7353052123665562</v>
+        <v>0.1882933649267259</v>
       </c>
       <c r="K3" t="n">
-        <v>4.404503920881493</v>
+        <v>-0.7379511020379637</v>
       </c>
       <c r="L3" t="n">
-        <v>3.313258847515695</v>
+        <v>0.8533071699423412</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5028979968343664</v>
+        <v>0.4847387071360581</v>
       </c>
       <c r="N3" t="n">
         <v>0.3192617061751275</v>
@@ -609,13 +609,13 @@
         <v>22683</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1950327890258524</v>
+        <v>0.1963144254134286</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2541033663830788</v>
+        <v>0.2463892889312887</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.162707410676855</v>
+        <v>-0.384750924290245</v>
       </c>
       <c r="F4" t="n">
         <v>0.02060599821333125</v>
@@ -627,19 +627,19 @@
         <v>0.3647494409798685</v>
       </c>
       <c r="I4" t="n">
-        <v>0.959338027521014</v>
+        <v>0.7904789200584337</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1007661861244134</v>
+        <v>0.1359875794146014</v>
       </c>
       <c r="K4" t="n">
-        <v>1.18940653706729</v>
+        <v>-0.3450075137345774</v>
       </c>
       <c r="L4" t="n">
-        <v>3.122045438197869</v>
+        <v>1.175229844348679</v>
       </c>
       <c r="M4" t="n">
-        <v>1.302875109627829</v>
+        <v>1.255074803659512</v>
       </c>
       <c r="N4" t="n">
         <v>0.3441434427665372</v>
@@ -655,13 +655,13 @@
         <v>22682</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1385307397617676</v>
+        <v>0.1466798766133469</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5574193578749157</v>
+        <v>0.396410903644647</v>
       </c>
       <c r="E5" t="n">
-        <v>-20.52807018321447</v>
+        <v>-1.2441063405887</v>
       </c>
       <c r="F5" t="n">
         <v>-0.02123182707797572</v>
@@ -673,19 +673,19 @@
         <v>0.2700529786939702</v>
       </c>
       <c r="I5" t="n">
-        <v>6.323781799943597</v>
+        <v>1.710348197033399</v>
       </c>
       <c r="J5" t="n">
-        <v>-5.466820710218081</v>
+        <v>0.6301805820815078</v>
       </c>
       <c r="K5" t="n">
-        <v>149.921537539003</v>
+        <v>4.359990846571769</v>
       </c>
       <c r="L5" t="n">
-        <v>26.85185198315807</v>
+        <v>2.954454537622099</v>
       </c>
       <c r="M5" t="n">
-        <v>4.023795432216084</v>
+        <v>2.702558202237923</v>
       </c>
       <c r="N5" t="n">
         <v>0.2912848057719459</v>
@@ -701,13 +701,13 @@
         <v>17359</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03464452148095137</v>
+        <v>0.03461883256702673</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01309534985863885</v>
+        <v>0.01301088945899308</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0125019256640924</v>
+        <v>0.0131092516368994</v>
       </c>
       <c r="F6" t="n">
         <v>0.02376545766850745</v>
@@ -719,19 +719,19 @@
         <v>0.04433166613933689</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0749902694380794</v>
+        <v>0.068930128297507</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3637053645221761</v>
+        <v>0.3273508365408323</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.423486641537854</v>
+        <v>-0.5487324277758909</v>
       </c>
       <c r="L6" t="n">
-        <v>0.062488343773987</v>
+        <v>0.0558208766606076</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3779919392403524</v>
+        <v>0.3758327041734363</v>
       </c>
       <c r="N6" t="n">
         <v>0.02056620847082945</v>
@@ -747,13 +747,13 @@
         <v>22683</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1409101860009501</v>
+        <v>0.1565155915951917</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6406920376453725</v>
+        <v>0.4775719964227519</v>
       </c>
       <c r="E7" t="n">
-        <v>-19.79705757265704</v>
+        <v>-2.088392980632952</v>
       </c>
       <c r="F7" t="n">
         <v>0.02545838659129335</v>
@@ -765,19 +765,19 @@
         <v>0.440190385814844</v>
       </c>
       <c r="I7" t="n">
-        <v>6.208574850572722</v>
+        <v>0.8531730549852041</v>
       </c>
       <c r="J7" t="n">
-        <v>-8.403686460623462</v>
+        <v>-2.061119765676287</v>
       </c>
       <c r="K7" t="n">
-        <v>171.533003320746</v>
+        <v>6.115167121350607</v>
       </c>
       <c r="L7" t="n">
-        <v>26.00563242322976</v>
+        <v>2.941566035618156</v>
       </c>
       <c r="M7" t="n">
-        <v>4.546811382684945</v>
+        <v>3.051274263192469</v>
       </c>
       <c r="N7" t="n">
         <v>0.4147319992235507</v>
@@ -793,13 +793,13 @@
         <v>22683</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02266991833436789</v>
+        <v>0.02338229919083826</v>
       </c>
       <c r="D8" t="n">
-        <v>0.102272446454782</v>
+        <v>0.09011881113960583</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.229975546792592</v>
+        <v>-0.3201156876382311</v>
       </c>
       <c r="F8" t="n">
         <v>-0.005599423965684899</v>
@@ -811,19 +811,19 @@
         <v>0.069337442865145</v>
       </c>
       <c r="I8" t="n">
-        <v>1.048120422624566</v>
+        <v>0.2455502383013965</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.634938765429507</v>
+        <v>-1.011066699084869</v>
       </c>
       <c r="K8" t="n">
-        <v>14.15685903483618</v>
+        <v>2.817609199079233</v>
       </c>
       <c r="L8" t="n">
-        <v>2.278095969417158</v>
+        <v>0.5656659259396276</v>
       </c>
       <c r="M8" t="n">
-        <v>4.511372513404057</v>
+        <v>3.854146694646543</v>
       </c>
       <c r="N8" t="n">
         <v>0.0749368668308299</v>
@@ -839,13 +839,13 @@
         <v>17092</v>
       </c>
       <c r="C9" t="n">
-        <v>5.237323235391408</v>
+        <v>4.532411569210918</v>
       </c>
       <c r="D9" t="n">
-        <v>20.28562170262251</v>
+        <v>7.813496983774399</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0106017975198022</v>
+        <v>0.08550588228129349</v>
       </c>
       <c r="F9" t="n">
         <v>0.7735410863279173</v>
@@ -857,19 +857,19 @@
         <v>4.546406818427034</v>
       </c>
       <c r="I9" t="n">
-        <v>1467.225328383705</v>
+        <v>51.28566402668161</v>
       </c>
       <c r="J9" t="n">
-        <v>36.10340696488176</v>
+        <v>3.806144011418927</v>
       </c>
       <c r="K9" t="n">
-        <v>2046.087456549411</v>
+        <v>16.80275669914738</v>
       </c>
       <c r="L9" t="n">
-        <v>1467.214726586185</v>
+        <v>51.20015814440031</v>
       </c>
       <c r="M9" t="n">
-        <v>3.873280450887901</v>
+        <v>1.723916035527795</v>
       </c>
       <c r="N9" t="n">
         <v>3.772865732099117</v>
@@ -885,13 +885,13 @@
         <v>22683</v>
       </c>
       <c r="C10" t="n">
-        <v>0.852654060006133</v>
+        <v>0.8459298963989901</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5281444482503721</v>
+        <v>0.4921264292749047</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.0476380361273513</v>
       </c>
       <c r="F10" t="n">
         <v>0.5048835252689406</v>
@@ -903,19 +903,19 @@
         <v>1.095071252599263</v>
       </c>
       <c r="I10" t="n">
-        <v>8.169729171817945</v>
+        <v>2.671794070344645</v>
       </c>
       <c r="J10" t="n">
-        <v>1.929883973930574</v>
+        <v>1.123192049488761</v>
       </c>
       <c r="K10" t="n">
-        <v>9.350265836570518</v>
+        <v>1.792548589830417</v>
       </c>
       <c r="L10" t="n">
-        <v>8.169729171817945</v>
+        <v>2.624156034217294</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6194123420306862</v>
+        <v>0.5817579345165844</v>
       </c>
       <c r="N10" t="n">
         <v>0.5901877273303219</v>
@@ -931,13 +931,13 @@
         <v>22683</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7362817389817832</v>
+        <v>0.7211472257990822</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6339629402489868</v>
+        <v>0.5147820825212875</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0064497886375593</v>
+        <v>0.0565942225295279</v>
       </c>
       <c r="F11" t="n">
         <v>0.3525930668537879</v>
@@ -949,19 +949,19 @@
         <v>0.9471405515197224</v>
       </c>
       <c r="I11" t="n">
-        <v>24.32759952186412</v>
+        <v>2.907228432692311</v>
       </c>
       <c r="J11" t="n">
-        <v>6.304638621890755</v>
+        <v>1.576582616759832</v>
       </c>
       <c r="K11" t="n">
-        <v>128.0616946724907</v>
+        <v>3.505373419935813</v>
       </c>
       <c r="L11" t="n">
-        <v>24.32114973322656</v>
+        <v>2.850634210162783</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8610330892162356</v>
+        <v>0.7138377076204828</v>
       </c>
       <c r="N11" t="n">
         <v>0.5945474846659345</v>
@@ -977,10 +977,10 @@
         <v>23310</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004504504504504504</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06696571006789313</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -995,19 +995,21 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>14.79975385005554</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>217.0513370382814</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>14.86638763507228</v>
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1023,13 +1025,13 @@
         <v>22683</v>
       </c>
       <c r="C13" t="n">
-        <v>2.709158098498637</v>
+        <v>2.578906996518272</v>
       </c>
       <c r="D13" t="n">
-        <v>4.065329703498336</v>
+        <v>2.825609794756923</v>
       </c>
       <c r="E13" t="n">
-        <v>0.04110557636816</v>
+        <v>0.3439703733016284</v>
       </c>
       <c r="F13" t="n">
         <v>1.055809520970542</v>
@@ -1041,19 +1043,19 @@
         <v>2.836130717851046</v>
       </c>
       <c r="I13" t="n">
-        <v>155.0438403789948</v>
+        <v>17.66965278513289</v>
       </c>
       <c r="J13" t="n">
-        <v>9.718171477646967</v>
+        <v>3.050181594786875</v>
       </c>
       <c r="K13" t="n">
-        <v>190.9811210874786</v>
+        <v>10.88809740753912</v>
       </c>
       <c r="L13" t="n">
-        <v>155.0027348026267</v>
+        <v>17.32568241183126</v>
       </c>
       <c r="M13" t="n">
-        <v>1.500587841570141</v>
+        <v>1.095661766233415</v>
       </c>
       <c r="N13" t="n">
         <v>1.780321196880503</v>
@@ -1069,13 +1071,13 @@
         <v>22682</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03573469202138864</v>
+        <v>0.03635520782414774</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1060158537080891</v>
+        <v>0.09572801541964594</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.200342494487545</v>
+        <v>-0.3005565776258209</v>
       </c>
       <c r="F14" t="n">
         <v>-0.009466307014536574</v>
@@ -1087,19 +1089,19 @@
         <v>0.09090822417132892</v>
       </c>
       <c r="I14" t="n">
-        <v>1.00275137312617</v>
+        <v>0.2804505026291052</v>
       </c>
       <c r="J14" t="n">
-        <v>-1.155727289901855</v>
+        <v>-0.6108138121510511</v>
       </c>
       <c r="K14" t="n">
-        <v>9.72715667328926</v>
+        <v>1.684439216431046</v>
       </c>
       <c r="L14" t="n">
-        <v>2.203093867613715</v>
+        <v>0.5810070802549261</v>
       </c>
       <c r="M14" t="n">
-        <v>2.966748773002838</v>
+        <v>2.633130743817721</v>
       </c>
       <c r="N14" t="n">
         <v>0.1003745311858655</v>
@@ -1115,13 +1117,13 @@
         <v>17092</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3833162252446148</v>
+        <v>0.3831291349690035</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2409134786702591</v>
+        <v>0.2402046419781221</v>
       </c>
       <c r="E15" t="n">
-        <v>0.000681094366558</v>
+        <v>0.0191257704145364</v>
       </c>
       <c r="F15" t="n">
         <v>0.1802969083096659</v>
@@ -1133,19 +1135,19 @@
         <v>0.5638437185382837</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9895094214696422</v>
+        <v>0.9212294760236102</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4148140802476398</v>
+        <v>0.405521506557029</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.8229508527508864</v>
+        <v>-0.854219639992865</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9888283271030841</v>
+        <v>0.9021037056090737</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6284979940948734</v>
+        <v>0.6269547785697777</v>
       </c>
       <c r="N15" t="n">
         <v>0.3835468102286179</v>
@@ -1161,13 +1163,13 @@
         <v>17135</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01803473825269754</v>
+        <v>0.003383525810169934</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5863506508584359</v>
+        <v>0.1786294222460851</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.9439480097481722</v>
+        <v>-0.4290979605539471</v>
       </c>
       <c r="F16" t="n">
         <v>-0.09437097078449955</v>
@@ -1179,19 +1181,19 @@
         <v>0.0730482781196838</v>
       </c>
       <c r="I16" t="n">
-        <v>63.11047619047619</v>
+        <v>0.7971176076592857</v>
       </c>
       <c r="J16" t="n">
-        <v>75.78671704332146</v>
+        <v>1.328173042469664</v>
       </c>
       <c r="K16" t="n">
-        <v>7873.509040786817</v>
+        <v>4.527284076445028</v>
       </c>
       <c r="L16" t="n">
-        <v>64.05442420022436</v>
+        <v>1.226215568213233</v>
       </c>
       <c r="M16" t="n">
-        <v>32.51229059400031</v>
+        <v>52.79387014255218</v>
       </c>
       <c r="N16" t="n">
         <v>0.1674192489041834</v>
@@ -1207,13 +1209,13 @@
         <v>16781</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03616322429029507</v>
+        <v>-0.002059170204809698</v>
       </c>
       <c r="D17" t="n">
-        <v>1.004653448668803</v>
+        <v>0.4693549994613925</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.9841216175808052</v>
+        <v>-0.756709656356732</v>
       </c>
       <c r="F17" t="n">
         <v>-0.2569832402234637</v>
@@ -1225,19 +1227,19 @@
         <v>0.1024240355069989</v>
       </c>
       <c r="I17" t="n">
-        <v>49.018281535649</v>
+        <v>2.501725249512703</v>
       </c>
       <c r="J17" t="n">
-        <v>21.39991627883891</v>
+        <v>2.593645785581378</v>
       </c>
       <c r="K17" t="n">
-        <v>737.275746261957</v>
+        <v>9.828861604069306</v>
       </c>
       <c r="L17" t="n">
-        <v>50.0024031532298</v>
+        <v>3.258434905869435</v>
       </c>
       <c r="M17" t="n">
-        <v>27.78108059735195</v>
+        <v>227.93404759116</v>
       </c>
       <c r="N17" t="n">
         <v>0.3594072757304626</v>
@@ -1253,13 +1255,13 @@
         <v>17092</v>
       </c>
       <c r="C18" t="n">
-        <v>1.894817711960064</v>
+        <v>1.883003433929984</v>
       </c>
       <c r="D18" t="n">
-        <v>5.818431775088083</v>
+        <v>2.067675746483325</v>
       </c>
       <c r="E18" t="n">
-        <v>-636.2245725128403</v>
+        <v>0.1620156927206628</v>
       </c>
       <c r="F18" t="n">
         <v>0.6966995656024342</v>
@@ -1271,22 +1273,758 @@
         <v>2.19838029565866</v>
       </c>
       <c r="I18" t="n">
-        <v>102.9270411717699</v>
+        <v>12.90166576061898</v>
       </c>
       <c r="J18" t="n">
-        <v>-76.60238400622487</v>
+        <v>2.963493302769867</v>
       </c>
       <c r="K18" t="n">
-        <v>8485.05478124874</v>
+        <v>10.66156319763621</v>
       </c>
       <c r="L18" t="n">
-        <v>739.1516136846102</v>
+        <v>12.73965006789832</v>
       </c>
       <c r="M18" t="n">
-        <v>3.070707930563568</v>
+        <v>1.09807327444322</v>
       </c>
       <c r="N18" t="n">
         <v>1.501680730056225</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>자산_YoY_성장률</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>20124</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.07423603174149838</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1726152084288571</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.3368005423800255</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.01057584621593095</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0475191098996282</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.1274265352081881</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.8397735115661011</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.532143448031239</v>
+      </c>
+      <c r="K19" t="n">
+        <v>5.007874820881824</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.176574053946127</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.325221383464172</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.1380023814241191</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>이익잉여금_YoY_성장률</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>20124</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.09177941872670313</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8846483544228035</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-4.272388803412033</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.0198697430624142</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.07047533455895436</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.1947689611584314</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.646932127615556</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.2342898123890821</v>
+      </c>
+      <c r="K20" t="n">
+        <v>14.42298592194449</v>
+      </c>
+      <c r="L20" t="n">
+        <v>8.919320931027588</v>
+      </c>
+      <c r="M20" t="n">
+        <v>9.638853314783699</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.2146387042208456</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>영업이익_YoY_성장률</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20259</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.2569560254551552</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.612908149489525</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-20.72082018019749</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.6923948299758913</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.09388144746833391</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.3889850767562922</v>
+      </c>
+      <c r="I21" t="n">
+        <v>15.83586548998217</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1.306462981040903</v>
+      </c>
+      <c r="K21" t="n">
+        <v>15.84791737365405</v>
+      </c>
+      <c r="L21" t="n">
+        <v>36.55668567017966</v>
+      </c>
+      <c r="M21" t="n">
+        <v>14.06041420157342</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.081379906732183</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>순이익_YoY_성장률</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>20257</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.2956378313210168</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4.660560007413868</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-25.75797353713092</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.8981904876873928</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.1648818884056012</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.4758680095388847</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20.53373421131778</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-1.118195409995693</v>
+      </c>
+      <c r="K22" t="n">
+        <v>14.76969762415475</v>
+      </c>
+      <c r="L22" t="n">
+        <v>46.2917077484487</v>
+      </c>
+      <c r="M22" t="n">
+        <v>15.76442360772571</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.374058497226277</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>부채비율_변화량</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>20124</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.009471951745002261</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.47467510050429</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-2.330724099768661</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.08283797499435269</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.00264906143951135</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.09189409302080939</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.34459972095309</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.1123271379292087</v>
+      </c>
+      <c r="K23" t="n">
+        <v>12.61708740419137</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4.675323820721751</v>
+      </c>
+      <c r="M23" t="n">
+        <v>50.11375831330069</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.1747320680151621</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>유동비율_변화량</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>20124</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.08448318681485494</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.060010990242772</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-6.076855874238932</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.1934984241575474</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.0037644125541235</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.1636493108402072</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.579348938363647</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-2.1072746780491</v>
+      </c>
+      <c r="K24" t="n">
+        <v>13.7268414121396</v>
+      </c>
+      <c r="L24" t="n">
+        <v>9.65620481260258</v>
+      </c>
+      <c r="M24" t="n">
+        <v>12.54700527059648</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.3571477349977547</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>단기부채_의존도</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>22683</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.748398583722265</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.1752586176758013</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.2302305424968797</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.6410708298949788</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.7818839722521576</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8881160303117482</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.9963641113288896</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-0.7959120789776668</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.1108059835202089</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.7661335688320099</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.2341781792318847</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.2470452004167695</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>차입_의존도</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>22750</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1988887216018639</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.2152976353976769</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.03108003333240568</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1251564455569462</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2958579881656805</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.9009009009009008</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.410060285585913</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.440265834164349</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.9009008999009008</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.082502987920353</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.2647779548332748</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>발생액</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>22828</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-30967686311.64798</v>
+      </c>
+      <c r="D27" t="n">
+        <v>150557839126.5885</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-1194282217540</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-16712922750</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-4040320000</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1526854750</v>
+      </c>
+      <c r="I27" t="n">
+        <v>236569635839.9998</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-5.912815918835636</v>
+      </c>
+      <c r="K27" t="n">
+        <v>40.30206692420244</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1430851853380</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4.861772287778526</v>
+      </c>
+      <c r="N27" t="n">
+        <v>18239777500</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>총이익률_변화량</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>20189</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.002798959037099414</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.08338109054532443</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.36674</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.0257</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0211</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.3476479999999997</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-0.1651442158090412</v>
+      </c>
+      <c r="K28" t="n">
+        <v>7.488838975558938</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.7143879999999997</v>
+      </c>
+      <c r="M28" t="n">
+        <v>29.79003602415454</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.0468</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ROE_변화량</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>20122</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.01061347915567432</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.2905205002888145</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-1.298095487694835</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.0695381774971649</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.00711408957239535</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.04766107760004355</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.382932904794064</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.2621998707502838</v>
+      </c>
+      <c r="K29" t="n">
+        <v>10.16931054794451</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.681028392488899</v>
+      </c>
+      <c r="M29" t="n">
+        <v>27.37278662609824</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.1171992550972085</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>총자본회전률_변화량</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>20124</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.01582238876874085</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.1980539718100598</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.7243425814351743</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.09481168379065871</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.009825015194572951</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.06641951931190568</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.6550929871338581</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-0.168340848552248</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.132693788545318</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.379435568569032</v>
+      </c>
+      <c r="M30" t="n">
+        <v>12.51732432471516</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.1612312031025644</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>운전자본회전률_변화량</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>20124</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.2409607650909582</v>
+      </c>
+      <c r="D31" t="n">
+        <v>44.49916065229619</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-239.8488994755441</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.8952391819871233</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.0201617206786937</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.8796512576979261</v>
+      </c>
+      <c r="I31" t="n">
+        <v>248.0746077904618</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.2497683443651323</v>
+      </c>
+      <c r="K31" t="n">
+        <v>20.13222428419199</v>
+      </c>
+      <c r="L31" t="n">
+        <v>487.923507266006</v>
+      </c>
+      <c r="M31" t="n">
+        <v>184.6738851260644</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.774890439685049</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>이익수익률</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>22682</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.02627953041699755</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.2846791724990496</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-1.567275328362563</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.04842731910200813</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.04174730177734375</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.1015744045745959</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.494702624111342</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-2.894879878906209</v>
+      </c>
+      <c r="K32" t="n">
+        <v>11.1783789443433</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.061977952473905</v>
+      </c>
+      <c r="M32" t="n">
+        <v>10.8327343746949</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.1500017236766041</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>매출액_대비_현금흐름</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>22796</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0009550037523979357</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.3340955717519453</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-2.435079038376669</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.01236001128589412</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05120500823591725</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.1149721281361066</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.4357977806391017</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-5.146678315935509</v>
+      </c>
+      <c r="K33" t="n">
+        <v>32.06047569367404</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2.870876819015771</v>
+      </c>
+      <c r="M33" t="n">
+        <v>349.8369204446149</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.1273321394220008</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>현금흐름_기반_ROA</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>22682</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.03635520782414774</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.09572801541964594</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.3005565776258209</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.009466307014536574</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.04295023372354854</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.09090822417132892</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.2804505026291052</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.6108138121510511</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.684439216431046</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.5810070802549261</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2.633130743817721</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.1003745311858655</v>
       </c>
     </row>
   </sheetData>
@@ -1300,7 +2038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1337,16 +2075,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>매우 높은 변동성, 높은 왜도, 매우 높은 첨도</t>
+          <t>매우 높은 변동성</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -1397,16 +2135,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>중간 변동성, 매우 높은 왜도, 매우 높은 첨도</t>
+          <t>중간 변동성</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -1437,16 +2175,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>중간 변동성, 매우 높은 왜도, 매우 높은 첨도</t>
+          <t>중간 변동성</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -1457,11 +2195,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>중간 변동성, 높은 첨도</t>
+          <t>중간 변동성</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1477,16 +2215,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>큰 범위, 중간 변동성, 매우 높은 왜도, 매우 높은 첨도</t>
+          <t>높은 왜도, 높은 첨도</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -1517,16 +2255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>매우 높은 왜도, 매우 높은 첨도</t>
+          <t>정상</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -1537,16 +2275,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>매우 높은 변동성, 매우 높은 왜도, 매우 높은 첨도</t>
+          <t>매우 작은 스케일</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -1557,16 +2295,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>중간 범위, 매우 높은 왜도, 매우 높은 첨도</t>
+          <t>높은 왜도, 높은 첨도</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -1617,16 +2355,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>매우 높은 변동성, 매우 높은 왜도, 매우 높은 첨도</t>
+          <t>매우 높은 변동성</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -1637,16 +2375,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>매우 높은 변동성, 매우 높은 왜도, 매우 높은 첨도</t>
+          <t>매우 높은 변동성</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -1657,16 +2395,336 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>높은 첨도</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>자산_YoY_성장률</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>중간 변동성</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>이익잉여금_YoY_성장률</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>높은 변동성, 높은 첨도</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>영업이익_YoY_성장률</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>매우 높은 변동성, 높은 첨도</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>순이익_YoY_성장률</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>매우 높은 변동성, 높은 첨도</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>부채비율_변화량</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>매우 높은 변동성, 높은 첨도</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>유동비율_변화량</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>매우 높은 변동성, 높은 첨도</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>단기부채_의존도</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>정상</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>차입_의존도</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>정상</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>발생액</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>매우 큰 범위, 중간 변동성, 매우 높은 왜도, 매우 높은 첨도, 매우 큰 스케일</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>총이익률_변화량</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>매우 높은 변동성</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ROE_변화량</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>매우 높은 변동성, 높은 첨도</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>총자본회전률_변화량</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>매우 높은 변동성</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>운전자본회전률_변화량</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
         <v>6</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>중간 범위, 중간 변동성, 매우 높은 왜도, 매우 높은 첨도</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>중간 범위, 매우 높은 변동성, 매우 높은 첨도</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>이익수익률</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>매우 높은 변동성, 높은 첨도</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>매출액_대비_현금흐름</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>8</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>매우 높은 변동성, 매우 높은 왜도, 매우 높은 첨도, 매우 작은 스케일</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>현금흐름_기반_ROA</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>중간 변동성</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -1681,7 +2739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1723,7 +2781,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1732,12 +2790,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>이상치 많음 (높은 왜도/첨도)</t>
+          <t>매우 높은 변동성</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -1757,7 +2815,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>일반적인 경우</t>
+          <t>정규분포에 가까움</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1798,21 +2856,21 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RobustScaler</t>
+          <t>StandardScaler</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>이상치 많음 (높은 왜도/첨도)</t>
+          <t>일반적인 경우</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -1848,21 +2906,21 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>RobustScaler</t>
+          <t>StandardScaler</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>이상치 많음 (높은 왜도/첨도)</t>
+          <t>일반적인 경우</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -1873,16 +2931,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RobustScaler</t>
+          <t>StandardScaler</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>이상치 많음 (높은 왜도/첨도)</t>
+          <t>일반적인 경우</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1898,7 +2956,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1912,7 +2970,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -1948,21 +3006,21 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RobustScaler</t>
+          <t>StandardScaler</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>이상치 많음 (높은 왜도/첨도)</t>
+          <t>일반적인 경우</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -1973,21 +3031,21 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RobustScaler</t>
+          <t>StandardScaler</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>이상치 많음 (높은 왜도/첨도)</t>
+          <t>정규분포에 가까움</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -1998,7 +3056,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2012,7 +3070,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -2032,7 +3090,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>일반적인 경우</t>
+          <t>정규분포에 가까움</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2073,7 +3131,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2082,12 +3140,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>이상치 많음 (높은 왜도/첨도)</t>
+          <t>매우 높은 변동성</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -2098,7 +3156,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2107,12 +3165,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>이상치 많음 (높은 왜도/첨도)</t>
+          <t>매우 높은 변동성</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -2123,21 +3181,421 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>RobustScaler</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>이상치 많음 (높은 왜도/첨도)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>자산_YoY_성장률</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>일반적인 경우</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>이익잉여금_YoY_성장률</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>RobustScaler</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>이상치 많음 (높은 왜도/첨도)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>영업이익_YoY_성장률</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>RobustScaler</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>이상치 많음 (높은 왜도/첨도)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>순이익_YoY_성장률</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>RobustScaler</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>이상치 많음 (높은 왜도/첨도)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>부채비율_변화량</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>RobustScaler</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>이상치 많음 (높은 왜도/첨도)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>유동비율_변화량</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>RobustScaler</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>이상치 많음 (높은 왜도/첨도)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>단기부채_의존도</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>정규분포에 가까움</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>차입_의존도</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>일반적인 경우</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>발생액</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>RobustScaler</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>이상치 많음 (높은 왜도/첨도)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>총이익률_변화량</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>RobustScaler</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>매우 높은 변동성</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ROE_변화량</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>RobustScaler</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>이상치 많음 (높은 왜도/첨도)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>총자본회전률_변화량</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>RobustScaler</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>매우 높은 변동성</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>운전자본회전률_변화량</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
         <v>6</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>RobustScaler</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>이상치 많음 (높은 왜도/첨도)</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>이익수익률</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>RobustScaler</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>이상치 많음 (높은 왜도/첨도)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>매출액_대비_현금흐름</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>8</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>RobustScaler</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>이상치 많음 (높은 왜도/첨도)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>현금흐름_기반_ROA</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>StandardScaler</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>정규분포에 가까움</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Low</t>
         </is>
       </c>
     </row>
